--- a/tools/tests/excel_fair_results_test.xlsx
+++ b/tools/tests/excel_fair_results_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgentry/Documents/Code/CodeEarth.drawdown/tools/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D12673-AFF5-BC41-A78A-F595D5048807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E89C46-CEED-9244-B3AB-14B62E4C997B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{FB4DF749-7746-9F4E-B522-2D2AD81EA377}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Gtperyr_PDS2" sheetId="2" r:id="rId2"/>
     <sheet name="Gtperyr_PDS3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -444,828 +444,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DEE361-493E-5546-A9DC-B916416DB94D}">
-  <dimension ref="A4:D52"/>
+  <dimension ref="A4:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2015</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2016</v>
       </c>
-      <c r="B8">
-        <f>B7+1</f>
+      <c r="E8">
+        <f>E7+1</f>
         <v>2</v>
       </c>
-      <c r="C8">
-        <f>C7+0.5</f>
+      <c r="F8">
+        <f>F7+0.5</f>
         <v>1.5</v>
       </c>
-      <c r="D8">
-        <f>D7+0.25</f>
+      <c r="G8">
+        <f>G7+0.25</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2017</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B52" si="0">B8+1</f>
+      <c r="E9">
+        <f t="shared" ref="E9:E52" si="0">E8+1</f>
         <v>3</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C52" si="1">C8+0.5</f>
+      <c r="F9">
+        <f t="shared" ref="F9:F52" si="1">F8+0.5</f>
         <v>2</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D52" si="2">D8+0.25</f>
+      <c r="G9">
+        <f t="shared" ref="G9:G52" si="2">G8+0.25</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2018</v>
       </c>
-      <c r="B10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
-      <c r="B11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2020</v>
       </c>
-      <c r="B12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
-      <c r="B13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
-      <c r="B14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2023</v>
       </c>
-      <c r="B15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2024</v>
       </c>
-      <c r="B16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2025</v>
       </c>
-      <c r="B17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2026</v>
       </c>
-      <c r="B18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2027</v>
       </c>
-      <c r="B19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2028</v>
       </c>
-      <c r="B20">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2029</v>
       </c>
-      <c r="B21">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2030</v>
       </c>
-      <c r="B22">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2031</v>
       </c>
-      <c r="B23">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2032</v>
       </c>
-      <c r="B24">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2033</v>
       </c>
-      <c r="B25">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2034</v>
       </c>
-      <c r="B26">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2035</v>
       </c>
-      <c r="B27">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2036</v>
       </c>
-      <c r="B28">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2037</v>
       </c>
-      <c r="B29">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2038</v>
       </c>
-      <c r="B30">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2039</v>
       </c>
-      <c r="B31">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2040</v>
       </c>
-      <c r="B32">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2041</v>
       </c>
-      <c r="B33">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2042</v>
       </c>
-      <c r="B34">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <f t="shared" si="2"/>
         <v>7.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2043</v>
       </c>
-      <c r="B35">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2044</v>
       </c>
-      <c r="B36">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2045</v>
       </c>
-      <c r="B37">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2046</v>
       </c>
-      <c r="B38">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C38">
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2047</v>
       </c>
-      <c r="B39">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C39">
+      <c r="F39">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2048</v>
       </c>
-      <c r="B40">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2049</v>
       </c>
-      <c r="B41">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C41">
+      <c r="F41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2050</v>
       </c>
-      <c r="B42">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C42">
+      <c r="F42">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <f t="shared" si="2"/>
         <v>9.75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2051</v>
       </c>
-      <c r="B43">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C43">
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2052</v>
       </c>
-      <c r="B44">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C44">
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2053</v>
       </c>
-      <c r="B45">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C45">
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2054</v>
       </c>
-      <c r="B46">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C46">
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <f t="shared" si="2"/>
         <v>10.75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2055</v>
       </c>
-      <c r="B47">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C47">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2056</v>
       </c>
-      <c r="B48">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C48">
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2057</v>
       </c>
-      <c r="B49">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C49">
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2058</v>
       </c>
-      <c r="B50">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C50">
+      <c r="F50">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <f t="shared" si="2"/>
         <v>11.75</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2059</v>
       </c>
-      <c r="B51">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C51">
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2060</v>
       </c>
-      <c r="B52">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C52">
+      <c r="F52">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
@@ -1277,828 +1278,829 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EB0AA5-4F6D-CB4E-82E3-68D9D16BFE1C}">
-  <dimension ref="A4:D52"/>
+  <dimension ref="A4:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E4" sqref="E4:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2015</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2016</v>
       </c>
-      <c r="B8">
-        <f>B7+1</f>
+      <c r="E8">
+        <f>E7+1</f>
         <v>2</v>
       </c>
-      <c r="C8">
-        <f>C7+0.5</f>
+      <c r="F8">
+        <f>F7+0.5</f>
         <v>1.5</v>
       </c>
-      <c r="D8">
-        <f>D7+0.25</f>
+      <c r="G8">
+        <f>G7+0.25</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2017</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B52" si="0">B8+1</f>
+      <c r="E9">
+        <f t="shared" ref="E9:E52" si="0">E8+1</f>
         <v>3</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C52" si="1">C8+0.5</f>
+      <c r="F9">
+        <f t="shared" ref="F9:F52" si="1">F8+0.5</f>
         <v>2</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D52" si="2">D8+0.25</f>
+      <c r="G9">
+        <f t="shared" ref="G9:G52" si="2">G8+0.25</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2018</v>
       </c>
-      <c r="B10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
-      <c r="B11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2020</v>
       </c>
-      <c r="B12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
-      <c r="B13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
-      <c r="B14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2023</v>
       </c>
-      <c r="B15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2024</v>
       </c>
-      <c r="B16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2025</v>
       </c>
-      <c r="B17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2026</v>
       </c>
-      <c r="B18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2027</v>
       </c>
-      <c r="B19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2028</v>
       </c>
-      <c r="B20">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2029</v>
       </c>
-      <c r="B21">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2030</v>
       </c>
-      <c r="B22">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2031</v>
       </c>
-      <c r="B23">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2032</v>
       </c>
-      <c r="B24">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2033</v>
       </c>
-      <c r="B25">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2034</v>
       </c>
-      <c r="B26">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2035</v>
       </c>
-      <c r="B27">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2036</v>
       </c>
-      <c r="B28">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2037</v>
       </c>
-      <c r="B29">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2038</v>
       </c>
-      <c r="B30">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2039</v>
       </c>
-      <c r="B31">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2040</v>
       </c>
-      <c r="B32">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2041</v>
       </c>
-      <c r="B33">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2042</v>
       </c>
-      <c r="B34">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <f t="shared" si="2"/>
         <v>7.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2043</v>
       </c>
-      <c r="B35">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2044</v>
       </c>
-      <c r="B36">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2045</v>
       </c>
-      <c r="B37">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2046</v>
       </c>
-      <c r="B38">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C38">
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2047</v>
       </c>
-      <c r="B39">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C39">
+      <c r="F39">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2048</v>
       </c>
-      <c r="B40">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2049</v>
       </c>
-      <c r="B41">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C41">
+      <c r="F41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2050</v>
       </c>
-      <c r="B42">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C42">
+      <c r="F42">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <f t="shared" si="2"/>
         <v>9.75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2051</v>
       </c>
-      <c r="B43">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C43">
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2052</v>
       </c>
-      <c r="B44">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C44">
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2053</v>
       </c>
-      <c r="B45">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C45">
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2054</v>
       </c>
-      <c r="B46">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C46">
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <f t="shared" si="2"/>
         <v>10.75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2055</v>
       </c>
-      <c r="B47">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C47">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2056</v>
       </c>
-      <c r="B48">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C48">
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2057</v>
       </c>
-      <c r="B49">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C49">
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2058</v>
       </c>
-      <c r="B50">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C50">
+      <c r="F50">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <f t="shared" si="2"/>
         <v>11.75</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2059</v>
       </c>
-      <c r="B51">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C51">
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2060</v>
       </c>
-      <c r="B52">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C52">
+      <c r="F52">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
@@ -2110,828 +2112,829 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28624540-26D2-2C4E-B8FE-316AE80517C4}">
-  <dimension ref="A4:D52"/>
+  <dimension ref="A4:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2015</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2016</v>
       </c>
-      <c r="B8">
-        <f>B7+1</f>
+      <c r="E8">
+        <f>E7+1</f>
         <v>2</v>
       </c>
-      <c r="C8">
-        <f>C7+0.5</f>
+      <c r="F8">
+        <f>F7+0.5</f>
         <v>1.5</v>
       </c>
-      <c r="D8">
-        <f>D7+0.25</f>
+      <c r="G8">
+        <f>G7+0.25</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2017</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B52" si="0">B8+1</f>
+      <c r="E9">
+        <f t="shared" ref="E9:E52" si="0">E8+1</f>
         <v>3</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C52" si="1">C8+0.5</f>
+      <c r="F9">
+        <f t="shared" ref="F9:F52" si="1">F8+0.5</f>
         <v>2</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D52" si="2">D8+0.25</f>
+      <c r="G9">
+        <f t="shared" ref="G9:G52" si="2">G8+0.25</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2018</v>
       </c>
-      <c r="B10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
-      <c r="B11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2020</v>
       </c>
-      <c r="B12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
-      <c r="B13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
-      <c r="B14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2023</v>
       </c>
-      <c r="B15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2024</v>
       </c>
-      <c r="B16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2025</v>
       </c>
-      <c r="B17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2026</v>
       </c>
-      <c r="B18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2027</v>
       </c>
-      <c r="B19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2028</v>
       </c>
-      <c r="B20">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2029</v>
       </c>
-      <c r="B21">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2030</v>
       </c>
-      <c r="B22">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2031</v>
       </c>
-      <c r="B23">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2032</v>
       </c>
-      <c r="B24">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2033</v>
       </c>
-      <c r="B25">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2034</v>
       </c>
-      <c r="B26">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2035</v>
       </c>
-      <c r="B27">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2036</v>
       </c>
-      <c r="B28">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2037</v>
       </c>
-      <c r="B29">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2038</v>
       </c>
-      <c r="B30">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2039</v>
       </c>
-      <c r="B31">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2040</v>
       </c>
-      <c r="B32">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2041</v>
       </c>
-      <c r="B33">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2042</v>
       </c>
-      <c r="B34">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <f t="shared" si="2"/>
         <v>7.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2043</v>
       </c>
-      <c r="B35">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2044</v>
       </c>
-      <c r="B36">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2045</v>
       </c>
-      <c r="B37">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2046</v>
       </c>
-      <c r="B38">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C38">
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2047</v>
       </c>
-      <c r="B39">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C39">
+      <c r="F39">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2048</v>
       </c>
-      <c r="B40">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2049</v>
       </c>
-      <c r="B41">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C41">
+      <c r="F41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2050</v>
       </c>
-      <c r="B42">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C42">
+      <c r="F42">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <f t="shared" si="2"/>
         <v>9.75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2051</v>
       </c>
-      <c r="B43">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C43">
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2052</v>
       </c>
-      <c r="B44">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C44">
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2053</v>
       </c>
-      <c r="B45">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C45">
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2054</v>
       </c>
-      <c r="B46">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C46">
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <f t="shared" si="2"/>
         <v>10.75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2055</v>
       </c>
-      <c r="B47">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C47">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2056</v>
       </c>
-      <c r="B48">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C48">
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2057</v>
       </c>
-      <c r="B49">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C49">
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2058</v>
       </c>
-      <c r="B50">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C50">
+      <c r="F50">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <f t="shared" si="2"/>
         <v>11.75</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2059</v>
       </c>
-      <c r="B51">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C51">
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2060</v>
       </c>
-      <c r="B52">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C52">
+      <c r="F52">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
